--- a/FISHTRADER/ARIMA/db_world.xlsx
+++ b/FISHTRADER/ARIMA/db_world.xlsx
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">year</t>
+    <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">value </t>
+    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">liter</t>
@@ -122,7 +122,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -146,7 +146,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B8"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -164,7 +164,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>2017</v>
+        <v>43100</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>136.37</v>
@@ -175,7 +175,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>2018</v>
+        <v>43465</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>139.52</v>
@@ -186,7 +186,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>2019</v>
+        <v>43830</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>144.13</v>
@@ -197,7 +197,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>2020</v>
+        <v>44196</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>143.96</v>
@@ -208,7 +208,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>2021</v>
+        <v>44561</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>146.52</v>
@@ -219,7 +219,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>2022</v>
+        <v>44926</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>183.9</v>
@@ -230,7 +230,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>2023</v>
+        <v>45291</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>186.7</v>
